--- a/StructureDefinition-ng-bundle-device-observation.xlsx
+++ b/StructureDefinition-ng-bundle-device-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-02T11:55:50+01:00</t>
+    <t>2025-08-02T15:01:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
